--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H2">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I2">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J2">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N2">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q2">
-        <v>3.047362411436666</v>
+        <v>1.306541308122667</v>
       </c>
       <c r="R2">
-        <v>27.42626170293</v>
+        <v>11.758871773104</v>
       </c>
       <c r="S2">
-        <v>0.09591379245293993</v>
+        <v>0.02501490570870045</v>
       </c>
       <c r="T2">
-        <v>0.09591379245293993</v>
+        <v>0.02501490570870045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H3">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I3">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J3">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q3">
-        <v>2.815176753192</v>
+        <v>1.136501496012</v>
       </c>
       <c r="R3">
-        <v>25.336590778728</v>
+        <v>10.228513464108</v>
       </c>
       <c r="S3">
-        <v>0.08860589663068714</v>
+        <v>0.02175934092844467</v>
       </c>
       <c r="T3">
-        <v>0.08860589663068714</v>
+        <v>0.02175934092844467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H4">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I4">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J4">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N4">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q4">
-        <v>0.6466564995706665</v>
+        <v>0.2618004611023333</v>
       </c>
       <c r="R4">
-        <v>5.819908496136</v>
+        <v>2.356204149921</v>
       </c>
       <c r="S4">
-        <v>0.02035310176938388</v>
+        <v>0.005012404742395112</v>
       </c>
       <c r="T4">
-        <v>0.02035310176938388</v>
+        <v>0.005012404742395112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H5">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I5">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J5">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N5">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q5">
-        <v>18.85363059265467</v>
+        <v>7.214204962497666</v>
       </c>
       <c r="R5">
-        <v>169.682675333892</v>
+        <v>64.927844662479</v>
       </c>
       <c r="S5">
-        <v>0.5934060238000219</v>
+        <v>0.1381224273417117</v>
       </c>
       <c r="T5">
-        <v>0.5934060238000218</v>
+        <v>0.1381224273417117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H6">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N6">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q6">
-        <v>0.7700537037099999</v>
+        <v>3.236374725962667</v>
       </c>
       <c r="R6">
-        <v>6.930483333389999</v>
+        <v>29.127372533664</v>
       </c>
       <c r="S6">
-        <v>0.024236950235413</v>
+        <v>0.06196329814041862</v>
       </c>
       <c r="T6">
-        <v>0.024236950235413</v>
+        <v>0.06196329814041862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H7">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q7">
-        <v>0.7113815138159999</v>
+        <v>2.815176753192</v>
       </c>
       <c r="R7">
-        <v>6.402433624343999</v>
+        <v>25.336590778728</v>
       </c>
       <c r="S7">
-        <v>0.02239028039951398</v>
+        <v>0.05389908500911456</v>
       </c>
       <c r="T7">
-        <v>0.02239028039951398</v>
+        <v>0.05389908500911456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H8">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N8">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q8">
-        <v>0.163406961592</v>
+        <v>0.6484941503873333</v>
       </c>
       <c r="R8">
-        <v>1.470662654328</v>
+        <v>5.836447353486</v>
       </c>
       <c r="S8">
-        <v>0.005143130118255823</v>
+        <v>0.01241600240553582</v>
       </c>
       <c r="T8">
-        <v>0.005143130118255824</v>
+        <v>0.01241600240553582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H9">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N9">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q9">
-        <v>4.764221023324</v>
+        <v>17.86998272721267</v>
       </c>
       <c r="R9">
-        <v>42.877989209916</v>
+        <v>160.829844544914</v>
       </c>
       <c r="S9">
-        <v>0.1499508245937843</v>
+        <v>0.3421368541187844</v>
       </c>
       <c r="T9">
-        <v>0.1499508245937843</v>
+        <v>0.3421368541187844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.557401</v>
+      </c>
+      <c r="I10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.57753066666667</v>
+      </c>
+      <c r="N10">
+        <v>37.732592</v>
+      </c>
+      <c r="O10">
+        <v>0.1317204310459389</v>
+      </c>
+      <c r="P10">
+        <v>0.1317204310459389</v>
+      </c>
+      <c r="Q10">
+        <v>2.336909390376889</v>
+      </c>
+      <c r="R10">
+        <v>21.032184513392</v>
+      </c>
+      <c r="S10">
+        <v>0.04474222719681982</v>
+      </c>
+      <c r="T10">
+        <v>0.04474222719681982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.557401</v>
+      </c>
+      <c r="I11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.940628</v>
+      </c>
+      <c r="N11">
+        <v>32.821884</v>
+      </c>
+      <c r="O11">
+        <v>0.1145776761962127</v>
+      </c>
+      <c r="P11">
+        <v>0.1145776761962127</v>
+      </c>
+      <c r="Q11">
+        <v>2.032772329276</v>
+      </c>
+      <c r="R11">
+        <v>18.294950963484</v>
+      </c>
+      <c r="S11">
+        <v>0.03891925025865346</v>
+      </c>
+      <c r="T11">
+        <v>0.03891925025865346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.557401</v>
+      </c>
+      <c r="I12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.520244333333333</v>
+      </c>
+      <c r="N12">
+        <v>7.560733</v>
+      </c>
+      <c r="O12">
+        <v>0.02639370785296846</v>
+      </c>
+      <c r="P12">
+        <v>0.02639370785296846</v>
+      </c>
+      <c r="Q12">
+        <v>0.4682622372147778</v>
+      </c>
+      <c r="R12">
+        <v>4.214360134933</v>
+      </c>
+      <c r="S12">
+        <v>0.008965300705037522</v>
+      </c>
+      <c r="T12">
+        <v>0.008965300705037522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.557401</v>
+      </c>
+      <c r="I13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>69.44815566666666</v>
+      </c>
+      <c r="N13">
+        <v>208.344467</v>
+      </c>
+      <c r="O13">
+        <v>0.7273081849048799</v>
+      </c>
+      <c r="P13">
+        <v>0.7273081849048799</v>
+      </c>
+      <c r="Q13">
+        <v>12.90349047225189</v>
+      </c>
+      <c r="R13">
+        <v>116.131414250267</v>
+      </c>
+      <c r="S13">
+        <v>0.2470489034443838</v>
+      </c>
+      <c r="T13">
+        <v>0.2470489034443838</v>
       </c>
     </row>
   </sheetData>
